--- a/FlightBoardBOM.xlsx
+++ b/FlightBoardBOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DamianL\Desktop\Research\AA236B\electrical-documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MatthewPoole\Documents\Post-Grad\Stanford\MS Aero-Astro\AA236B\PandaSat\electrical-documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE52F702-195A-48CD-8F25-FDDE62C6C3F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE26EC02-6828-46BF-89E5-3D5ACDB91A99}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21590" windowHeight="10800" xr2:uid="{7969AC2C-1119-489B-B180-70BBFC48BFE9}"/>
+    <workbookView xWindow="4440" yWindow="3735" windowWidth="21600" windowHeight="11385" xr2:uid="{7969AC2C-1119-489B-B180-70BBFC48BFE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-S6C" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="146">
   <si>
     <t>Description</t>
   </si>
@@ -54,13 +54,427 @@
   </si>
   <si>
     <t>Data sheet in Repo? (Y/N)</t>
+  </si>
+  <si>
+    <t>Watchdog Timer</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>U10, U11</t>
+  </si>
+  <si>
+    <t>Battery Charging Circuit</t>
+  </si>
+  <si>
+    <t>IMU</t>
+  </si>
+  <si>
+    <t>Radio Module</t>
+  </si>
+  <si>
+    <t>Current Sense Amplifier</t>
+  </si>
+  <si>
+    <t>3.3V Regulator</t>
+  </si>
+  <si>
+    <t>MCU</t>
+  </si>
+  <si>
+    <t>5V Regulator</t>
+  </si>
+  <si>
+    <t>2MB Serial Flash</t>
+  </si>
+  <si>
+    <t>H-Bridge Driver</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Maxim-Integrated/MAX706RESA%2bT?qs=sGAEpiMZZMunEhqKs81nFJU%2flPixIJn0cmxy5TkxEso%3d</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>SOIC Narrow - 8</t>
+  </si>
+  <si>
+    <t>700-MAX706RESAT</t>
+  </si>
+  <si>
+    <t>MAX706RESA+T</t>
+  </si>
+  <si>
+    <t>QFN 16</t>
+  </si>
+  <si>
+    <t>584-LTC4121EUD#PBF</t>
+  </si>
+  <si>
+    <t>LTC4121EUD#PBF</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Analog-Devices-Linear-Technology/LTC4121EUDPBF?qs=sGAEpiMZZMvi6wO7nhr1L7YUjqsu48YyoHfTMJoaXhk%3d</t>
+  </si>
+  <si>
+    <t>24 LGA</t>
+  </si>
+  <si>
+    <t>497-14946-2-ND</t>
+  </si>
+  <si>
+    <t>LSM9DS1TR</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stmicroelectronics/LSM9DS1TR/497-14946-2-ND/4988083</t>
+  </si>
+  <si>
+    <t>SOT23-5</t>
+  </si>
+  <si>
+    <t>MAX4372TEUK+TTR-ND</t>
+  </si>
+  <si>
+    <t>MAX4372TEUK+T</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/maxim-integrated/MAX4372TEUK-T/MAX4372TEUK-TTR-ND/947998</t>
+  </si>
+  <si>
+    <t>SMD Module</t>
+  </si>
+  <si>
+    <t>RFM23BP-433-S2</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/en/details/rfm23bp-433-s2/rf-modules/hope-microelectronics/rfm23bp-433s2/</t>
+  </si>
+  <si>
+    <t>14-TSSOP</t>
+  </si>
+  <si>
+    <t>296-25332-1-ND</t>
+  </si>
+  <si>
+    <t>TPS54226PWPR</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/texas-instruments/TPS54226PWPR/296-25332-1-ND/2181224</t>
+  </si>
+  <si>
+    <t>64 TQFP</t>
+  </si>
+  <si>
+    <t>ATSAMD51J19A-AUTCT-ND</t>
+  </si>
+  <si>
+    <t>ATSAMD51J19A-AUT</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/microchip-technology/ATSAMD51J19A-AUT/ATSAMD51J19A-AUTCT-ND/7390180</t>
+  </si>
+  <si>
+    <t>811-2709-1-ND</t>
+  </si>
+  <si>
+    <t>OKL-T/3-W12P-C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/murata-power-solutions-inc/OKL-T-3-W12P-C/811-2709-1-ND/3438604?utm_adgroup=Converters&amp;slid=&amp;gclid=CjwKCAiAv9riBRANEiwA9Dqv1VDB7RMhuqvErh2pT_Oln94WwlYCXdZU2CGsG2M2lW842OwO4CUcThoCuvAQAvD_BwE</t>
+  </si>
+  <si>
+    <t>8-SOIC</t>
+  </si>
+  <si>
+    <t>M25P16-VMN6TPCT-ND</t>
+  </si>
+  <si>
+    <t>M25P16-VMN6TP TR</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/micron-technology-inc/M25P16-VMN6TP-TR/M25P16-VMN6TPCT-ND/1889049</t>
+  </si>
+  <si>
+    <t>16HTSSOP</t>
+  </si>
+  <si>
+    <t>296-38514-5-ND</t>
+  </si>
+  <si>
+    <t>DRV8848PWP</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/texas-instruments/DRV8848PWP/296-38514-5-ND/5029929</t>
+  </si>
+  <si>
+    <t>Integrated Circuits</t>
+  </si>
+  <si>
+    <t>Relays</t>
+  </si>
+  <si>
+    <t>Dry Contact Relay</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>Through Hole Mounted</t>
+  </si>
+  <si>
+    <t>PB907-ND</t>
+  </si>
+  <si>
+    <t>PE014006</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en?keywords=pe014006</t>
+  </si>
+  <si>
+    <t>Transistors</t>
+  </si>
+  <si>
+    <t>N-Channel MOSFET</t>
+  </si>
+  <si>
+    <t>Q1,Q2,Q3,Q4</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <t>IRLML2803CT-ND</t>
+  </si>
+  <si>
+    <t>IRLML2803TR</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/infineon-technologies/IRLML2803TR/IRLML2803CT-ND/354727?utm_adgroup=Semiconductor%20Modules&amp;slid=&amp;gclid=CjwKCAiAv9riBRANEiwA9Dqv1dEeynYGSZ1Z-8vVvoxYSLaO6JjboIfXfgzu60ACLyAF1VSy52zfGxoCpNQQAvD_BwE</t>
+  </si>
+  <si>
+    <t>P-Channel MOSFET</t>
+  </si>
+  <si>
+    <t>Q5,Q6,Q7</t>
+  </si>
+  <si>
+    <t>IRF9310TRPBFCT-ND</t>
+  </si>
+  <si>
+    <t>IRF9310TRPBF</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/infineon-technologies/IRF9310TRPBF/IRF9310TRPBFCT-ND/2202235</t>
+  </si>
+  <si>
+    <t>NPN BJT</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>SOT23-3</t>
+  </si>
+  <si>
+    <t>1727-4851-1-ND</t>
+  </si>
+  <si>
+    <t>BC846,215</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/nexperia-usa-inc/BC846215/1727-4851-1-ND/2531351</t>
+  </si>
+  <si>
+    <t>Crystal Oscillators</t>
+  </si>
+  <si>
+    <t>32.768 kHz Oscillator</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>4-SMD</t>
+  </si>
+  <si>
+    <t>XC2826CT-ND</t>
+  </si>
+  <si>
+    <t>ECS-327ATQMV-AS-TR</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/ecs-inc/ECS-327ATQMV-AS-TR/XC2826CT-ND/9385280</t>
+  </si>
+  <si>
+    <t>Diodes</t>
+  </si>
+  <si>
+    <t>5A, 40V Schottky Diode</t>
+  </si>
+  <si>
+    <t>D1,D2</t>
+  </si>
+  <si>
+    <t>SOD-128</t>
+  </si>
+  <si>
+    <t>755-RBR5LAM40ATFTR</t>
+  </si>
+  <si>
+    <t>RBR5LAM40ATFTR</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/ROHM-Semiconductor/RBR5LAM40ATFTR?qs=sGAEpiMZZMtQ8nqTKtFS%2fBUuz6Zx2fl0ashv0jLiOoi%2fVSXLCURt5g%3d%3d</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Diodes-Incorporated/DFLS130L-7?qs=JV7lzlMm3yLedTETABmZ1A%3D%3D&amp;gclid=CjwKCAiAv9riBRANEiwA9Dqv1U3BTQPY_tgJHgAtwbkbL9BZcd1ZtAzjx58soxVdVsRsEwfAwhkPCxoCzV4QAvD_BwE</t>
+  </si>
+  <si>
+    <t>1A, 30V Schottky Diode</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>POWERDI-123</t>
+  </si>
+  <si>
+    <t>621-DFLS130L</t>
+  </si>
+  <si>
+    <t>DFLS130L-7</t>
+  </si>
+  <si>
+    <t>Connectors</t>
+  </si>
+  <si>
+    <t>Micro SD Holder</t>
+  </si>
+  <si>
+    <t>Micro USB Connector</t>
+  </si>
+  <si>
+    <t>DC Barrel Jack</t>
+  </si>
+  <si>
+    <t>SMA RF Connector</t>
+  </si>
+  <si>
+    <t>Battery Holder</t>
+  </si>
+  <si>
+    <t>2x3 Male Header Vertical 2.54mm pitch</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>J6,J7,J8,J9,J10,J11,J12,J13</t>
+  </si>
+  <si>
+    <t>WM12834CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/molex-llc/5031821852/WM12834CT-ND/5823232?WT.z_cid=ref_snapeda&amp;utm_source=snapeda&amp;utm_medium=aggregator&amp;utm_campaign=buynow</t>
+  </si>
+  <si>
+    <t>SMT, Right Angle</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/amphenol-icc-fci/10118194-0001LF/609-4618-1-ND/2785382?utm_adgroup=Connectors%20&amp;%20Interconnects</t>
+  </si>
+  <si>
+    <t>609-4618-1-ND</t>
+  </si>
+  <si>
+    <t>10118194-0001LF</t>
+  </si>
+  <si>
+    <t>SMT, Through Hole, Right Angle</t>
+  </si>
+  <si>
+    <t>474-PRT-00119</t>
+  </si>
+  <si>
+    <t>PRT-00119</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/SparkFun-Electronics/PRT-00119/?qs=WyAARYrbSnbnQpS9xf%252bx5A%3d%3d&amp;gclid=CjwKCAiAv9riBRANEiwA9Dqv1bZpPBG1sqqEwVjPFKx9jxH9Iy5eiCKOifHf-wmxNbb1iiibD4kuZRoC8XUQAvD_BwE</t>
+  </si>
+  <si>
+    <t>Through Hole, Right Angle</t>
+  </si>
+  <si>
+    <t>Through Hole, Vertical</t>
+  </si>
+  <si>
+    <t>ACX1230-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/amphenol-rf-division/132134/ACX1230-ND/1011907</t>
+  </si>
+  <si>
+    <t>BK-18650-PC8-ND</t>
+  </si>
+  <si>
+    <t>BK-18650-PC8</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/mpd-memory-protection-devices/BK-18650-PC8/BK-18650-PC8-ND/2330515?utm_adgroup=Battery%20Products&amp;slid=&amp;gclid=CjwKCAiAv9riBRANEiwA9Dqv1ftS1ZkedsvRQHj0cO5Rel1NNbhnYHVK6ARKYPnUpCTeIUbZTRnjMRoCKk0QAvD_BwE</t>
+  </si>
+  <si>
+    <t>855-M20-9980345</t>
+  </si>
+  <si>
+    <t>M20-9980345</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Harwin/M20-9980345?qs=sGAEpiMZZMs%252bGHln7q6pmzlZUuX%2f53qj9rI1PaJtFxU%3d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +496,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -97,7 +523,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -120,12 +546,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -133,6 +596,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -448,23 +921,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3A4314-0F82-4785-B06F-435A11FFC277}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.81640625" customWidth="1"/>
-    <col min="2" max="4" width="14.90625" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" customWidth="1"/>
-    <col min="8" max="8" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="2" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,297 +963,677 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5031821852</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="2">
+        <v>132134</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="3">
+        <v>8</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -790,7 +1643,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -800,7 +1653,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -810,7 +1663,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -820,7 +1673,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -830,7 +1683,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -840,8 +1693,26 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A24:H24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FlightBoardBOM.xlsx
+++ b/FlightBoardBOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MatthewPoole\Documents\Post-Grad\Stanford\MS Aero-Astro\AA236B\PandaSat\electrical-documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE26EC02-6828-46BF-89E5-3D5ACDB91A99}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552CDB7F-780B-4A4A-8315-7CE7B723C4C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3735" windowWidth="21600" windowHeight="11385" xr2:uid="{7969AC2C-1119-489B-B180-70BBFC48BFE9}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="309">
   <si>
     <t>Description</t>
   </si>
@@ -468,13 +468,502 @@
   </si>
   <si>
     <t>https://www.mouser.com/ProductDetail/Harwin/M20-9980345?qs=sGAEpiMZZMs%252bGHln7q6pmzlZUuX%2f53qj9rI1PaJtFxU%3d</t>
+  </si>
+  <si>
+    <t>Inductors</t>
+  </si>
+  <si>
+    <t>L1,L2,L3</t>
+  </si>
+  <si>
+    <t>Fuses</t>
+  </si>
+  <si>
+    <t>F1,F2</t>
+  </si>
+  <si>
+    <t>Jumper</t>
+  </si>
+  <si>
+    <t>JP1,JP2,JP3,JP4,JP5,JP6</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Molex/22-28-4027?qs=sGAEpiMZZMs%252bGHln7q6pm%252bS0pk2Wo0XxNI9H%252bWJw8G8%3d</t>
+  </si>
+  <si>
+    <t>538-22-28-4027</t>
+  </si>
+  <si>
+    <t>22-28-4027</t>
+  </si>
+  <si>
+    <t>2 Position Male Jumper</t>
+  </si>
+  <si>
+    <t>3 Position Male Jumper</t>
+  </si>
+  <si>
+    <t>JP7,JP8,JP9</t>
+  </si>
+  <si>
+    <t>649-68004-103HLF</t>
+  </si>
+  <si>
+    <t>68004-103HLF</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Amphenol-FCI/68004-103HLF?qs=sGAEpiMZZMs%252bGHln7q6pm2nKUjHUi6l6jmnOf127njY%3d</t>
+  </si>
+  <si>
+    <t>Resistors</t>
+  </si>
+  <si>
+    <t>Capacitors</t>
+  </si>
+  <si>
+    <t>10uF SMD Ceramic</t>
+  </si>
+  <si>
+    <t>0.1uF SMD Ceramic</t>
+  </si>
+  <si>
+    <t>10nF SMD Ceramic</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>22uF SMD Ceramic</t>
+  </si>
+  <si>
+    <t>47uF SMD Ceramic</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>2.2uF SMD Ceramic</t>
+  </si>
+  <si>
+    <t>22nF SMD Ceramic</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>C2,C3,C5,C10,C13,C22,C23</t>
+  </si>
+  <si>
+    <t>C7,C15,C16,C24</t>
+  </si>
+  <si>
+    <t>3.3nF SMD Ceramic</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>1uF SMD Ceramic</t>
+  </si>
+  <si>
+    <t>C26,C27,C34,C35,C29,C31</t>
+  </si>
+  <si>
+    <t>C1,C6,C8,C12,C14,C17,C18,C21,C28,C30</t>
+  </si>
+  <si>
+    <t>22pF SMD Ceramic</t>
+  </si>
+  <si>
+    <t>C32,C33</t>
+  </si>
+  <si>
+    <t>C11,C19,C36,C37</t>
+  </si>
+  <si>
+    <t>100uF SMD Ceramic</t>
+  </si>
+  <si>
+    <t>C38,C39,C40,C41,C42</t>
+  </si>
+  <si>
+    <t>SMD 0603</t>
+  </si>
+  <si>
+    <t>SMD 1206</t>
+  </si>
+  <si>
+    <t>GRM188R61A106KE69J</t>
+  </si>
+  <si>
+    <t>C0603X104K8RACTU</t>
+  </si>
+  <si>
+    <t>C0603C103K8RACTU</t>
+  </si>
+  <si>
+    <t>GRM188R61A226ME15D</t>
+  </si>
+  <si>
+    <t>GRM188R60J476ME15D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/murata-electronics-north-america/GRM188R60J476ME15D/490-13247-2-ND/5877410</t>
+  </si>
+  <si>
+    <t>1276-1085-1-ND</t>
+  </si>
+  <si>
+    <t>CL10A225KP8NNNC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10A225KP8NNNC/1276-1085-1-ND/3889171</t>
+  </si>
+  <si>
+    <t>490-13247-1-ND</t>
+  </si>
+  <si>
+    <t>490-10476-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/murata-electronics-north-america/GRM188R61A226ME15D/490-10476-1-ND/5026394</t>
+  </si>
+  <si>
+    <t>399-11132-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/kemet/C0603C103K8RACTU/399-11132-1-ND/4357813</t>
+  </si>
+  <si>
+    <t>399-5343-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/kemet/C0603X104K8RACTU/399-5343-1-ND/1842322</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en?keywords=490-14372-1-ND</t>
+  </si>
+  <si>
+    <t>490-14372-1-ND</t>
+  </si>
+  <si>
+    <t>399-3015-1-ND</t>
+  </si>
+  <si>
+    <t>C0402C223K8PACTU</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/kemet/C0402C223K8PACTU/399-3015-1-ND/447591</t>
+  </si>
+  <si>
+    <t>311-3691-1-ND</t>
+  </si>
+  <si>
+    <t>CC0201KRX7R6BB332</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/CC0201KRX7R6BB332/311-3691-1-ND/8024780</t>
+  </si>
+  <si>
+    <t>1276-1182-1-ND</t>
+  </si>
+  <si>
+    <t>CL10A105KP8NNNC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10A105KP8NNNC/1276-1182-1-ND/3889268</t>
+  </si>
+  <si>
+    <t>399-15378-1-ND</t>
+  </si>
+  <si>
+    <t>C0603C220J8GAC7867</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/kemet/C0603C220J8GAC7867/399-15378-1-ND/7386776</t>
+  </si>
+  <si>
+    <t>445-6007-1-ND</t>
+  </si>
+  <si>
+    <t>C3216X5R1A107M160AC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/tdk-corporation/C3216X5R1A107M160AC/445-6007-1-ND/2444048</t>
+  </si>
+  <si>
+    <t>43K SMD</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>330K SMD</t>
+  </si>
+  <si>
+    <t>100K SMD</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>40K9 SMD</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>470K SMD</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>4K7 SMD</t>
+  </si>
+  <si>
+    <t>6K04 SMD</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>10K SMD</t>
+  </si>
+  <si>
+    <t>73K2 SMD</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>22K1 SMD</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>3K3 SMD</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R3,R8,R9,R17,R21,R22</t>
+  </si>
+  <si>
+    <t>1K34 SMD</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>R6,R11,R15,R19,R25,R26</t>
+  </si>
+  <si>
+    <t>R28,R29,R30,R31,R32</t>
+  </si>
+  <si>
+    <t>R33</t>
+  </si>
+  <si>
+    <t>R35</t>
+  </si>
+  <si>
+    <t>SMD 2512</t>
+  </si>
+  <si>
+    <t>0R025 SMD</t>
+  </si>
+  <si>
+    <t>62R SMD</t>
+  </si>
+  <si>
+    <t>130R SMD</t>
+  </si>
+  <si>
+    <t>2M1 SMD</t>
+  </si>
+  <si>
+    <t>R38</t>
+  </si>
+  <si>
+    <t>845K SMD</t>
+  </si>
+  <si>
+    <t>R39</t>
+  </si>
+  <si>
+    <t>RR08P43.0KDCT-ND</t>
+  </si>
+  <si>
+    <t>RR0816P-433D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/susumu/RR0816P-433-D/RR08P43.0KDCT-ND/432763</t>
+  </si>
+  <si>
+    <t>A129718CT-ND</t>
+  </si>
+  <si>
+    <t>CRGCQ0603F330K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/te-connectivity-passive-product/CRGCQ0603F330K/A129718CT-ND/8577550</t>
+  </si>
+  <si>
+    <t>RR08P100KDCT-ND</t>
+  </si>
+  <si>
+    <t>RR0816P-104-D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/susumu/RR0816P-104-D/RR08P100KDCT-ND/432772</t>
+  </si>
+  <si>
+    <t>note could only find 40K7</t>
+  </si>
+  <si>
+    <t>RT0603BRD0740K7L-ND</t>
+  </si>
+  <si>
+    <t>RT0603BRD0740K7L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/RT0603BRD0740K7L/RT0603BRD0740K7L-ND/7708328</t>
+  </si>
+  <si>
+    <t>A102278CT-ND</t>
+  </si>
+  <si>
+    <t>CPF0603B470KE1</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/te-connectivity-passive-product/CPF0603B470KE1/A102278CT-ND/2728653</t>
+  </si>
+  <si>
+    <t>311-4.7KGRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603JR-074K7L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/RC0603JR-074K7L/311-4.7KGRCT-ND/729732</t>
+  </si>
+  <si>
+    <t>311-6.04KDCT-ND</t>
+  </si>
+  <si>
+    <t>RT0603DRD076K04L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/RT0603DRD076K04L/311-6.04KDCT-ND/1035869</t>
+  </si>
+  <si>
+    <t>RNCP0603FTD10K0CT-ND</t>
+  </si>
+  <si>
+    <t>RNCP0603FTD10K0</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RNCP0603FTD10K0/RNCP0603FTD10K0CT-ND/2240478</t>
+  </si>
+  <si>
+    <t>311-73.2KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0773K2L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/RC0603FR-0773K2L/311-73.2KHRCT-ND/730321</t>
+  </si>
+  <si>
+    <t>YAG1590TR-ND</t>
+  </si>
+  <si>
+    <t>RT0603BRD0722K1L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/RT0603BRD0722K1L/YAG1590TR-ND/1072367</t>
+  </si>
+  <si>
+    <t>311-3.30KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-073K3L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/RC0603FR-073K3L/311-3.30KHRCT-ND/730073</t>
+  </si>
+  <si>
+    <t>note could only find 1K35</t>
+  </si>
+  <si>
+    <t>RT0603BRD071K35L-ND</t>
+  </si>
+  <si>
+    <t>RT0603BRD071K35L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/RT0603BRD071K35L/RT0603BRD071K35L-ND/5927900</t>
+  </si>
+  <si>
+    <t>311-62GRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603JR-0762RL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/RC0603JR-0762RL/311-62GRCT-ND/729764</t>
+  </si>
+  <si>
+    <t>311-130GRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603JR-07130RL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/RC0603JR-07130RL/311-130GRCT-ND/729657</t>
+  </si>
+  <si>
+    <t>541-2.10MHCT-ND</t>
+  </si>
+  <si>
+    <t>CRCW06032M10FKEA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/vishay-dale/CRCW06032M10FKEA/541-2.10MHCT-ND/1180186</t>
+  </si>
+  <si>
+    <t>311-845KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07845KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/RC0603FR-07845KL/311-845KHRCT-ND/730357</t>
+  </si>
+  <si>
+    <t>CSR1206FK25L0TR-ND</t>
+  </si>
+  <si>
+    <t>CSR1206FK25L0</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/CSR1206FK25L0/CSR1206FK25L0TR-ND/1646093</t>
+  </si>
+  <si>
+    <t>R10,R13,R16,R18,R24,R27,R34,R36,R37</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,6 +997,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -523,7 +1018,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -583,12 +1078,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -606,6 +1112,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -921,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3A4314-0F82-4785-B06F-435A11FFC277}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,7 +1868,7 @@
         <v>92</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>29</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1398,7 +1906,7 @@
         <v>99</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>29</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1462,7 +1970,7 @@
         <v>107</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>29</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1500,7 +2008,7 @@
         <v>127</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>29</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1526,7 +2034,7 @@
         <v>129</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>29</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1552,7 +2060,7 @@
         <v>135</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>29</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1578,7 +2086,7 @@
         <v>139</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>29</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1604,7 +2112,7 @@
         <v>142</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>29</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1630,87 +2138,896 @@
         <v>145</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>29</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="A31" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="A33" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="A35" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="3">
+        <v>6</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="A37" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D39" s="3">
+        <v>10</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" s="3">
+        <v>7</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D42" s="3">
+        <v>4</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D44" s="3">
+        <v>4</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" s="3">
+        <v>6</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D49" s="3">
+        <v>5</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D53" s="3">
+        <v>6</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D56" s="3">
+        <v>6</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D58" s="3">
+        <v>9</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D63" s="3">
+        <v>5</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>308</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A38:H38"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A24:H24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/FlightBoardBOM.xlsx
+++ b/FlightBoardBOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MatthewPoole\Documents\Post-Grad\Stanford\MS Aero-Astro\AA236B\PandaSat\electrical-documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552CDB7F-780B-4A4A-8315-7CE7B723C4C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61468EAD-8C46-4CAB-BC63-BCA5E3AD3AAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="3735" windowWidth="21600" windowHeight="11385" xr2:uid="{7969AC2C-1119-489B-B180-70BBFC48BFE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7969AC2C-1119-489B-B180-70BBFC48BFE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-S6C" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="328">
   <si>
     <t>Description</t>
   </si>
@@ -269,15 +269,6 @@
     <t>SOT-23</t>
   </si>
   <si>
-    <t>IRLML2803CT-ND</t>
-  </si>
-  <si>
-    <t>IRLML2803TR</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/infineon-technologies/IRLML2803TR/IRLML2803CT-ND/354727?utm_adgroup=Semiconductor%20Modules&amp;slid=&amp;gclid=CjwKCAiAv9riBRANEiwA9Dqv1dEeynYGSZ1Z-8vVvoxYSLaO6JjboIfXfgzu60ACLyAF1VSy52zfGxoCpNQQAvD_BwE</t>
-  </si>
-  <si>
     <t>P-Channel MOSFET</t>
   </si>
   <si>
@@ -473,21 +464,12 @@
     <t>Inductors</t>
   </si>
   <si>
-    <t>L1,L2,L3</t>
-  </si>
-  <si>
     <t>Fuses</t>
   </si>
   <si>
-    <t>F1,F2</t>
-  </si>
-  <si>
     <t>Jumper</t>
   </si>
   <si>
-    <t>JP1,JP2,JP3,JP4,JP5,JP6</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/Molex/22-28-4027?qs=sGAEpiMZZMs%252bGHln7q6pm%252bS0pk2Wo0XxNI9H%252bWJw8G8%3d</t>
   </si>
   <si>
@@ -500,21 +482,6 @@
     <t>2 Position Male Jumper</t>
   </si>
   <si>
-    <t>3 Position Male Jumper</t>
-  </si>
-  <si>
-    <t>JP7,JP8,JP9</t>
-  </si>
-  <si>
-    <t>649-68004-103HLF</t>
-  </si>
-  <si>
-    <t>68004-103HLF</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/Amphenol-FCI/68004-103HLF?qs=sGAEpiMZZMs%252bGHln7q6pm2nKUjHUi6l6jmnOf127njY%3d</t>
-  </si>
-  <si>
     <t>Resistors</t>
   </si>
   <si>
@@ -957,6 +924,96 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/infineon-technologies/IRLML2803TRPBF/IRLML2803PBFCT-ND/812498</t>
+  </si>
+  <si>
+    <t>IRLML2803PBFCT-ND</t>
+  </si>
+  <si>
+    <t>IRLML2803TRPBF</t>
+  </si>
+  <si>
+    <t>JP6,JP7,JP8,JP9</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>2-SMD</t>
+  </si>
+  <si>
+    <t>SMD300F-2CT-ND</t>
+  </si>
+  <si>
+    <t>SMD300F-2</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/littelfuse-inc/SMD300F-2/SMD300F-2CT-ND/1045852</t>
+  </si>
+  <si>
+    <t>J14,J15,J16</t>
+  </si>
+  <si>
+    <t>2 Pin Molex Vertical 2.54mm pitch</t>
+  </si>
+  <si>
+    <t>A1921-ND</t>
+  </si>
+  <si>
+    <t>640456-2</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/te-connectivity-amp-connectors/640456-2/A1921-ND/109003</t>
+  </si>
+  <si>
+    <t>56uH Fixed Inductor</t>
+  </si>
+  <si>
+    <t>652-CM322522-560KL</t>
+  </si>
+  <si>
+    <t>CM322522-560KL</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Bourns/CM322522-560KL?qs=sGAEpiMZZMsg%252by3WlYCkU45muCuneYXkqlGCquKUX0k%3d</t>
+  </si>
+  <si>
+    <t>10uH Fixed Inductor</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>652-CM322522-100KL</t>
+  </si>
+  <si>
+    <t>CM322522-100KL</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Bourns/CM322522-100KL?qs=sGAEpiMZZMsg%252by3WlYCkU45muCuneYXkVwLPC%2fVldao%3d</t>
+  </si>
+  <si>
+    <t>3.3uH Fixed Inductor</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>652-CM322522-3R3KL</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Bourns/CM453232-3R3KL?qs=sGAEpiMZZMsg%252by3WlYCkU%252b4RYdUJmhyQLuAED5QNU9M%3d</t>
+  </si>
+  <si>
+    <t>CM453232-3R3KL</t>
+  </si>
+  <si>
+    <t>6V 3A Reset Fuse</t>
   </si>
 </sst>
 </file>
@@ -1103,6 +1160,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1112,8 +1171,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1429,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3A4314-0F82-4785-B06F-435A11FFC277}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,16 +1529,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1744,16 +1801,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1782,16 +1839,16 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1807,13 +1864,13 @@
         <v>4</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>29</v>
@@ -1821,10 +1878,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>59</v>
@@ -1833,115 +1890,115 @@
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>29</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="H18" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="H20" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D22" s="3">
         <v>2</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>29</v>
@@ -1949,1085 +2006,1161 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="G23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F25" s="2">
         <v>5031821852</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F28" s="2">
         <v>132134</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D30" s="3">
         <v>8</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1210</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1210</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1210</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" s="3">
-        <v>6</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>308</v>
-      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>155</v>
+        <v>327</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>157</v>
+        <v>302</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>137</v>
+        <v>303</v>
       </c>
       <c r="D37" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>153</v>
+        <v>304</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>154</v>
+        <v>305</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>152</v>
+        <v>306</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="8"/>
+      <c r="A38" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>179</v>
+        <v>301</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="D39" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D40" s="3">
-        <v>7</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>308</v>
-      </c>
+      <c r="A40" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D41" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>200</v>
+        <v>176</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="D42" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>192</v>
+        <v>178</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D44" s="3">
         <v>4</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D45" s="3">
-        <v>1</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D46" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D47" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D48" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D49" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="8"/>
+      <c r="A50" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D51" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D52" s="3">
-        <v>1</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>308</v>
-      </c>
+      <c r="A52" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D53" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>262</v>
+        <v>244</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D54" s="3">
         <v>1</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D55" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>269</v>
+        <v>250</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>251</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D56" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D57" s="3">
         <v>1</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>307</v>
+        <v>231</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D58" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D59" s="3">
         <v>1</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D60" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D61" s="3">
         <v>1</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D62" s="3">
         <v>1</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D63" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>246</v>
+        <v>174</v>
       </c>
       <c r="D65" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D66" s="3">
         <v>1</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="D67" s="3">
         <v>1</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A38:H38"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A40:H40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/FlightBoardBOM.xlsx
+++ b/FlightBoardBOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MatthewPoole\Documents\Post-Grad\Stanford\MS Aero-Astro\AA236B\PandaSat\electrical-documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61468EAD-8C46-4CAB-BC63-BCA5E3AD3AAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE160C4-B08D-4DB4-BBF5-44274306D261}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7969AC2C-1119-489B-B180-70BBFC48BFE9}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{7969AC2C-1119-489B-B180-70BBFC48BFE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-S6C" sheetId="1" r:id="rId1"/>
@@ -146,27 +146,15 @@
     <t>24 LGA</t>
   </si>
   <si>
-    <t>497-14946-2-ND</t>
-  </si>
-  <si>
     <t>LSM9DS1TR</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/stmicroelectronics/LSM9DS1TR/497-14946-2-ND/4988083</t>
-  </si>
-  <si>
     <t>SOT23-5</t>
   </si>
   <si>
-    <t>MAX4372TEUK+TTR-ND</t>
-  </si>
-  <si>
     <t>MAX4372TEUK+T</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/maxim-integrated/MAX4372TEUK-T/MAX4372TEUK-TTR-ND/947998</t>
-  </si>
-  <si>
     <t>SMD Module</t>
   </si>
   <si>
@@ -212,15 +200,6 @@
     <t>8-SOIC</t>
   </si>
   <si>
-    <t>M25P16-VMN6TPCT-ND</t>
-  </si>
-  <si>
-    <t>M25P16-VMN6TP TR</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/micron-technology-inc/M25P16-VMN6TP-TR/M25P16-VMN6TPCT-ND/1889049</t>
-  </si>
-  <si>
     <t>16HTSSOP</t>
   </si>
   <si>
@@ -386,9 +365,6 @@
     <t>J1</t>
   </si>
   <si>
-    <t>J2</t>
-  </si>
-  <si>
     <t>J3</t>
   </si>
   <si>
@@ -398,9 +374,6 @@
     <t>J5</t>
   </si>
   <si>
-    <t>J6,J7,J8,J9,J10,J11,J12,J13</t>
-  </si>
-  <si>
     <t>WM12834CT-ND</t>
   </si>
   <si>
@@ -422,18 +395,6 @@
     <t>SMT, Through Hole, Right Angle</t>
   </si>
   <si>
-    <t>474-PRT-00119</t>
-  </si>
-  <si>
-    <t>PRT-00119</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/SparkFun-Electronics/PRT-00119/?qs=WyAARYrbSnbnQpS9xf%252bx5A%3d%3d&amp;gclid=CjwKCAiAv9riBRANEiwA9Dqv1bZpPBG1sqqEwVjPFKx9jxH9Iy5eiCKOifHf-wmxNbb1iiibD4kuZRoC8XUQAvD_BwE</t>
-  </si>
-  <si>
-    <t>Through Hole, Right Angle</t>
-  </si>
-  <si>
     <t>Through Hole, Vertical</t>
   </si>
   <si>
@@ -788,18 +749,6 @@
     <t>https://www.digikey.com/product-detail/en/susumu/RR0816P-104-D/RR08P100KDCT-ND/432772</t>
   </si>
   <si>
-    <t>note could only find 40K7</t>
-  </si>
-  <si>
-    <t>RT0603BRD0740K7L-ND</t>
-  </si>
-  <si>
-    <t>RT0603BRD0740K7L</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/yageo/RT0603BRD0740K7L/RT0603BRD0740K7L-ND/7708328</t>
-  </si>
-  <si>
     <t>A102278CT-ND</t>
   </si>
   <si>
@@ -866,15 +815,6 @@
     <t>note could only find 1K35</t>
   </si>
   <si>
-    <t>RT0603BRD071K35L-ND</t>
-  </si>
-  <si>
-    <t>RT0603BRD071K35L</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/yageo/RT0603BRD071K35L/RT0603BRD071K35L-ND/5927900</t>
-  </si>
-  <si>
     <t>311-62GRCT-ND</t>
   </si>
   <si>
@@ -1014,6 +954,66 @@
   </si>
   <si>
     <t>6V 3A Reset Fuse</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stmicroelectronics/LSM9DS1TR/497-14946-1-ND/4988079</t>
+  </si>
+  <si>
+    <t>497-14946-1-ND</t>
+  </si>
+  <si>
+    <t>MAX4372TEUK+TCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/maxim-integrated/MAX4372TEUK-T/MAX4372TEUK-TCT-ND/948256</t>
+  </si>
+  <si>
+    <t>870-IS25WP016D-JNLE</t>
+  </si>
+  <si>
+    <t>IS25WP016D-JNLE</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/ISSI/IS25WP016D-JNLE?qs=sGAEpiMZZMtI%252bQ06EiAoG90Wjr2DzRi12O0t3g0c%252bfQ%3d</t>
+  </si>
+  <si>
+    <t>YAG1658CT-ND</t>
+  </si>
+  <si>
+    <t>RT0603BRD0740K2L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/RT0603BRD0740K2L/YAG1658CT-ND/5139106</t>
+  </si>
+  <si>
+    <t>note could only find 40K2</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/RC0603FR-071K33L/311-1.33KHRCT-ND/729806</t>
+  </si>
+  <si>
+    <t>311-1.33KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-071K33L</t>
+  </si>
+  <si>
+    <t>J6,J7,J8,J9,J10,J11,J12,J13,J18</t>
+  </si>
+  <si>
+    <t>J2,J17</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>CP-036AHPJTR-ND</t>
+  </si>
+  <si>
+    <t>PJ-036AH-SMT-TR</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/cui-inc/PJ-036AH-SMT-TR/CP-036AHPJTR-ND/1530971</t>
   </si>
 </sst>
 </file>
@@ -1488,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3A4314-0F82-4785-B06F-435A11FFC277}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1606,13 +1606,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>40</v>
+        <v>308</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>29</v>
@@ -1626,19 +1626,19 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>42</v>
+        <v>310</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>44</v>
+        <v>311</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>29</v>
@@ -1652,19 +1652,19 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>29</v>
@@ -1678,19 +1678,19 @@
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>29</v>
@@ -1704,19 +1704,19 @@
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>29</v>
@@ -1730,19 +1730,19 @@
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>29</v>
@@ -1756,19 +1756,19 @@
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>60</v>
+        <v>312</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>61</v>
+        <v>313</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>62</v>
+        <v>314</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>29</v>
@@ -1782,19 +1782,19 @@
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>29</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1814,25 +1814,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>29</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1852,25 +1852,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D16" s="3">
         <v>4</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>29</v>
@@ -1878,59 +1878,59 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1942,33 +1942,33 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1980,25 +1980,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D22" s="3">
         <v>2</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>29</v>
@@ -2006,33 +2006,33 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2044,189 +2044,189 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F25" s="2">
         <v>5031821852</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>133</v>
+        <v>324</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>130</v>
+        <v>325</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>131</v>
+        <v>326</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>132</v>
+        <v>327</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F28" s="2">
         <v>132134</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="D29" s="3">
         <v>1</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>122</v>
+        <v>322</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D30" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D31" s="3">
         <v>3</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2238,10 +2238,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="C33" s="2">
         <v>1210</v>
@@ -2250,24 +2250,24 @@
         <v>1</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2">
         <v>1210</v>
@@ -2276,24 +2276,24 @@
         <v>1</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="C35" s="2">
         <v>1210</v>
@@ -2302,21 +2302,21 @@
         <v>1</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2328,33 +2328,33 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2366,33 +2366,33 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D39" s="3">
         <v>4</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -2404,293 +2404,293 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D41" s="3">
         <v>10</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D42" s="3">
         <v>7</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D44" s="3">
         <v>4</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D46" s="3">
         <v>4</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="D47" s="3">
         <v>1</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D49" s="3">
         <v>6</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D50" s="3">
         <v>2</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D51" s="3">
         <v>5</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -2702,450 +2702,450 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D53" s="3">
         <v>1</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D54" s="3">
         <v>1</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D55" s="3">
         <v>6</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D56" s="3">
         <v>1</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>253</v>
+        <v>315</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>254</v>
+        <v>316</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>255</v>
+        <v>317</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>252</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D57" s="3">
         <v>1</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="C58" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D58" s="3">
         <v>6</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D59" s="3">
         <v>1</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D60" s="3">
         <v>9</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D61" s="3">
         <v>1</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D62" s="3">
         <v>1</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D63" s="3">
         <v>1</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D65" s="3">
         <v>5</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D66" s="3">
         <v>1</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="D67" s="3">
         <v>1</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D68" s="3">
         <v>1</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D69" s="3">
         <v>1</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/FlightBoardBOM.xlsx
+++ b/FlightBoardBOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MatthewPoole\Documents\Post-Grad\Stanford\MS Aero-Astro\AA236B\PandaSat\electrical-documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE160C4-B08D-4DB4-BBF5-44274306D261}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F2A88A-164E-41AD-8F06-42F2E0B4375B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{7969AC2C-1119-489B-B180-70BBFC48BFE9}"/>
+    <workbookView xWindow="4785" yWindow="4080" windowWidth="21600" windowHeight="11385" xr2:uid="{7969AC2C-1119-489B-B180-70BBFC48BFE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-S6C" sheetId="1" r:id="rId1"/>
@@ -272,15 +272,6 @@
     <t>SOT23-3</t>
   </si>
   <si>
-    <t>1727-4851-1-ND</t>
-  </si>
-  <si>
-    <t>BC846,215</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/nexperia-usa-inc/BC846215/1727-4851-1-ND/2531351</t>
-  </si>
-  <si>
     <t>Crystal Oscillators</t>
   </si>
   <si>
@@ -611,15 +602,6 @@
     <t>https://www.digikey.com/product-detail/en/kemet/C0603C220J8GAC7867/399-15378-1-ND/7386776</t>
   </si>
   <si>
-    <t>445-6007-1-ND</t>
-  </si>
-  <si>
-    <t>C3216X5R1A107M160AC</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/tdk-corporation/C3216X5R1A107M160AC/445-6007-1-ND/2444048</t>
-  </si>
-  <si>
     <t>43K SMD</t>
   </si>
   <si>
@@ -1014,6 +996,24 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/cui-inc/PJ-036AH-SMT-TR/CP-036AHPJTR-ND/1530971</t>
+  </si>
+  <si>
+    <t>GRM31CE70G107ME39L</t>
+  </si>
+  <si>
+    <t>490-9966-1ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/murata-electronics-north-america/GRM31CE70G107ME39L/490-9966-1-ND/5026462</t>
+  </si>
+  <si>
+    <t>863-BC846BLT1G</t>
+  </si>
+  <si>
+    <t>BC846BLT1G</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/ON-Semiconductor/BC846BLT1G?qs=sGAEpiMZZMtqO%252bWUGLBzePo0Ry%252bsrgua</t>
   </si>
 </sst>
 </file>
@@ -1488,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3A4314-0F82-4785-B06F-435A11FFC277}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,13 +1606,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>29</v>
@@ -1632,13 +1632,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>29</v>
@@ -1762,13 +1762,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>29</v>
@@ -1864,13 +1864,13 @@
         <v>4</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>29</v>
@@ -1899,7 +1899,7 @@
         <v>76</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1916,21 +1916,21 @@
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>82</v>
+        <v>327</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1942,33 +1942,33 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1980,25 +1980,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D22" s="3">
         <v>2</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>29</v>
@@ -2006,33 +2006,33 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="G23" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2044,189 +2044,189 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F25" s="2">
         <v>5031821852</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D26" s="3">
         <v>2</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F28" s="2">
         <v>132134</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D30" s="3">
         <v>9</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D31" s="3">
         <v>3</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2238,10 +2238,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C33" s="2">
         <v>1210</v>
@@ -2250,24 +2250,24 @@
         <v>1</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2">
         <v>1210</v>
@@ -2276,24 +2276,24 @@
         <v>1</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C35" s="2">
         <v>1210</v>
@@ -2302,21 +2302,21 @@
         <v>1</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2328,33 +2328,33 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2366,33 +2366,33 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D39" s="3">
         <v>4</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -2404,293 +2404,293 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D41" s="3">
         <v>10</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D42" s="3">
         <v>7</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D44" s="3">
         <v>4</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="D46" s="3">
         <v>4</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D49" s="3">
         <v>6</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D50" s="3">
         <v>2</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="D51" s="3">
         <v>5</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>193</v>
+        <v>323</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>194</v>
+        <v>322</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>195</v>
+        <v>324</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -2702,465 +2702,465 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D53" s="3">
         <v>1</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D54" s="3">
         <v>1</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D55" s="3">
         <v>6</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D56" s="3">
         <v>1</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D57" s="3">
         <v>1</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D58" s="3">
         <v>6</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D59" s="3">
         <v>1</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D60" s="3">
         <v>9</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D61" s="3">
         <v>1</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D62" s="3">
         <v>1</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D63" s="3">
         <v>1</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D65" s="3">
         <v>5</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D66" s="3">
         <v>1</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D67" s="3">
         <v>1</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D68" s="3">
         <v>1</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D69" s="3">
         <v>1</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A21:H21"/>
     <mergeCell ref="A52:H52"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="A36:H36"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A21:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/FlightBoardBOM.xlsx
+++ b/FlightBoardBOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MatthewPoole\Documents\Post-Grad\Stanford\MS Aero-Astro\AA236B\PandaSat\electrical-documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F2A88A-164E-41AD-8F06-42F2E0B4375B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFA11B7-E947-4327-AE4C-CA41CEB231FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="4080" windowWidth="21600" windowHeight="11385" xr2:uid="{7969AC2C-1119-489B-B180-70BBFC48BFE9}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{7969AC2C-1119-489B-B180-70BBFC48BFE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-S6C" sheetId="1" r:id="rId1"/>
@@ -878,15 +878,6 @@
     <t>J14,J15,J16</t>
   </si>
   <si>
-    <t>2 Pin Molex Vertical 2.54mm pitch</t>
-  </si>
-  <si>
-    <t>A1921-ND</t>
-  </si>
-  <si>
-    <t>640456-2</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/te-connectivity-amp-connectors/640456-2/A1921-ND/109003</t>
   </si>
   <si>
@@ -1014,6 +1005,15 @@
   </si>
   <si>
     <t>https://www.mouser.com/ProductDetail/ON-Semiconductor/BC846BLT1G?qs=sGAEpiMZZMtqO%252bWUGLBzePo0Ry%252bsrgua</t>
+  </si>
+  <si>
+    <t>2 Pin Screw Terminals 3.5mm Pitch</t>
+  </si>
+  <si>
+    <t>474-PRT-08084</t>
+  </si>
+  <si>
+    <t>PRT-08084</t>
   </si>
 </sst>
 </file>
@@ -1488,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3A4314-0F82-4785-B06F-435A11FFC277}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:H18"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,13 +1606,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>29</v>
@@ -1632,13 +1632,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>29</v>
@@ -1762,13 +1762,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>29</v>
@@ -1916,13 +1916,13 @@
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>271</v>
@@ -2073,7 +2073,7 @@
         <v>102</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>117</v>
@@ -2102,19 +2102,19 @@
         <v>108</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>271</v>
@@ -2177,7 +2177,7 @@
         <v>106</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>118</v>
@@ -2200,7 +2200,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>281</v>
@@ -2212,13 +2212,13 @@
         <v>3</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>271</v>
@@ -2238,10 +2238,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C33" s="2">
         <v>1210</v>
@@ -2250,13 +2250,13 @@
         <v>1</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>271</v>
@@ -2264,10 +2264,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C34" s="2">
         <v>1210</v>
@@ -2276,13 +2276,13 @@
         <v>1</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>271</v>
@@ -2290,10 +2290,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C35" s="2">
         <v>1210</v>
@@ -2302,13 +2302,13 @@
         <v>1</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>271</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>276</v>
@@ -2676,13 +2676,13 @@
         <v>5</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>271</v>
@@ -2792,19 +2792,19 @@
         <v>1</v>
       </c>
       <c r="E56" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="I56" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3003,13 +3003,13 @@
         <v>1</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>271</v>
@@ -3150,17 +3150,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A21:H21"/>
     <mergeCell ref="A52:H52"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="A36:H36"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A21:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/FlightBoardBOM.xlsx
+++ b/FlightBoardBOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MatthewPoole\Documents\Post-Grad\Stanford\MS Aero-Astro\AA236B\PandaSat\electrical-documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFA11B7-E947-4327-AE4C-CA41CEB231FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133DBE36-122A-4DEC-ACF3-10CD1B882290}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{7969AC2C-1119-489B-B180-70BBFC48BFE9}"/>
   </bookViews>
@@ -878,9 +878,6 @@
     <t>J14,J15,J16</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/te-connectivity-amp-connectors/640456-2/A1921-ND/109003</t>
-  </si>
-  <si>
     <t>56uH Fixed Inductor</t>
   </si>
   <si>
@@ -1014,6 +1011,9 @@
   </si>
   <si>
     <t>PRT-08084</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/SparkFun/PRT-08084?qs=WyAARYrbSnalY1OfATfUQw%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -1488,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3A4314-0F82-4785-B06F-435A11FFC277}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,13 +1606,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>29</v>
@@ -1632,13 +1632,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>29</v>
@@ -1762,13 +1762,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>29</v>
@@ -1899,7 +1899,7 @@
         <v>76</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>271</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1916,16 +1916,16 @@
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>324</v>
-      </c>
       <c r="H18" s="2" t="s">
-        <v>271</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1963,7 +1963,7 @@
         <v>86</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>271</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2027,7 +2027,7 @@
         <v>94</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>271</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2065,7 +2065,7 @@
         <v>112</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>271</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2073,7 +2073,7 @@
         <v>102</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>117</v>
@@ -2091,7 +2091,7 @@
         <v>114</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>271</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2102,22 +2102,22 @@
         <v>108</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="H27" s="2" t="s">
-        <v>271</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2143,7 +2143,7 @@
         <v>120</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>271</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2169,7 +2169,7 @@
         <v>123</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>271</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2177,7 +2177,7 @@
         <v>106</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>118</v>
@@ -2195,12 +2195,12 @@
         <v>126</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>271</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>281</v>
@@ -2212,16 +2212,16 @@
         <v>3</v>
       </c>
       <c r="E31" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="H31" s="2" t="s">
-        <v>271</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2238,10 +2238,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2">
         <v>1210</v>
@@ -2250,13 +2250,13 @@
         <v>1</v>
       </c>
       <c r="E33" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>271</v>
@@ -2264,10 +2264,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C34" s="2">
         <v>1210</v>
@@ -2276,13 +2276,13 @@
         <v>1</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>271</v>
@@ -2290,10 +2290,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="C35" s="2">
         <v>1210</v>
@@ -2302,13 +2302,13 @@
         <v>1</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>271</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>276</v>
@@ -2676,13 +2676,13 @@
         <v>5</v>
       </c>
       <c r="E51" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>271</v>
@@ -2792,19 +2792,19 @@
         <v>1</v>
       </c>
       <c r="E56" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="H56" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="I56" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3003,13 +3003,13 @@
         <v>1</v>
       </c>
       <c r="E64" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="G64" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>271</v>
@@ -3150,17 +3150,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A21:H21"/>
     <mergeCell ref="A52:H52"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="A36:H36"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A21:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/FlightBoardBOM.xlsx
+++ b/FlightBoardBOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MatthewPoole\Documents\Post-Grad\Stanford\MS Aero-Astro\AA236B\PandaSat\electrical-documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133DBE36-122A-4DEC-ACF3-10CD1B882290}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771A3403-5B15-43BD-AD60-46C773A92FA4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{7969AC2C-1119-489B-B180-70BBFC48BFE9}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t>U8</t>
   </si>
   <si>
-    <t>U9</t>
-  </si>
-  <si>
     <t>U10, U11</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>5V Regulator</t>
   </si>
   <si>
-    <t>2MB Serial Flash</t>
-  </si>
-  <si>
     <t>H-Bridge Driver</t>
   </si>
   <si>
@@ -341,9 +335,6 @@
     <t>Micro USB Connector</t>
   </si>
   <si>
-    <t>DC Barrel Jack</t>
-  </si>
-  <si>
     <t>SMA RF Connector</t>
   </si>
   <si>
@@ -416,9 +407,6 @@
     <t>Inductors</t>
   </si>
   <si>
-    <t>Fuses</t>
-  </si>
-  <si>
     <t>Jumper</t>
   </si>
   <si>
@@ -614,9 +602,6 @@
     <t>100K SMD</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
     <t>40K9 SMD</t>
   </si>
   <si>
@@ -671,9 +656,6 @@
     <t>R6,R11,R15,R19,R25,R26</t>
   </si>
   <si>
-    <t>R28,R29,R30,R31,R32</t>
-  </si>
-  <si>
     <t>R33</t>
   </si>
   <si>
@@ -692,18 +674,9 @@
     <t>130R SMD</t>
   </si>
   <si>
-    <t>2M1 SMD</t>
-  </si>
-  <si>
     <t>R38</t>
   </si>
   <si>
-    <t>845K SMD</t>
-  </si>
-  <si>
-    <t>R39</t>
-  </si>
-  <si>
     <t>RR08P43.0KDCT-ND</t>
   </si>
   <si>
@@ -815,24 +788,6 @@
     <t>https://www.digikey.com/product-detail/en/yageo/RC0603JR-07130RL/311-130GRCT-ND/729657</t>
   </si>
   <si>
-    <t>541-2.10MHCT-ND</t>
-  </si>
-  <si>
-    <t>CRCW06032M10FKEA</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/vishay-dale/CRCW06032M10FKEA/541-2.10MHCT-ND/1180186</t>
-  </si>
-  <si>
-    <t>311-845KHRCT-ND</t>
-  </si>
-  <si>
-    <t>RC0603FR-07845KL</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/yageo/RC0603FR-07845KL/311-845KHRCT-ND/730357</t>
-  </si>
-  <si>
     <t>CSR1206FK25L0TR-ND</t>
   </si>
   <si>
@@ -842,9 +797,6 @@
     <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/CSR1206FK25L0/CSR1206FK25L0TR-ND/1646093</t>
   </si>
   <si>
-    <t>R10,R13,R16,R18,R24,R27,R34,R36,R37</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -857,24 +809,6 @@
     <t>IRLML2803TRPBF</t>
   </si>
   <si>
-    <t>JP6,JP7,JP8,JP9</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>2-SMD</t>
-  </si>
-  <si>
-    <t>SMD300F-2CT-ND</t>
-  </si>
-  <si>
-    <t>SMD300F-2</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/littelfuse-inc/SMD300F-2/SMD300F-2CT-ND/1045852</t>
-  </si>
-  <si>
     <t>J14,J15,J16</t>
   </si>
   <si>
@@ -923,9 +857,6 @@
     <t>CM453232-3R3KL</t>
   </si>
   <si>
-    <t>6V 3A Reset Fuse</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/stmicroelectronics/LSM9DS1TR/497-14946-1-ND/4988079</t>
   </si>
   <si>
@@ -938,15 +869,6 @@
     <t>https://www.digikey.com/product-detail/en/maxim-integrated/MAX4372TEUK-T/MAX4372TEUK-TCT-ND/948256</t>
   </si>
   <si>
-    <t>870-IS25WP016D-JNLE</t>
-  </si>
-  <si>
-    <t>IS25WP016D-JNLE</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/ISSI/IS25WP016D-JNLE?qs=sGAEpiMZZMtI%252bQ06EiAoG90Wjr2DzRi12O0t3g0c%252bfQ%3d</t>
-  </si>
-  <si>
     <t>YAG1658CT-ND</t>
   </si>
   <si>
@@ -974,18 +896,6 @@
     <t>J2,J17</t>
   </si>
   <si>
-    <t>SMD</t>
-  </si>
-  <si>
-    <t>CP-036AHPJTR-ND</t>
-  </si>
-  <si>
-    <t>PJ-036AH-SMT-TR</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/cui-inc/PJ-036AH-SMT-TR/CP-036AHPJTR-ND/1530971</t>
-  </si>
-  <si>
     <t>GRM31CE70G107ME39L</t>
   </si>
   <si>
@@ -1014,6 +924,96 @@
   </si>
   <si>
     <t>https://www.mouser.com/ProductDetail/SparkFun/PRT-08084?qs=WyAARYrbSnalY1OfATfUQw%3D%3D</t>
+  </si>
+  <si>
+    <t>JP6,JP7,JP8,JP9,J10</t>
+  </si>
+  <si>
+    <t>665K SMD</t>
+  </si>
+  <si>
+    <t>311-665KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07665KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/RC0603FR-07665KL/311-665KHRCT-ND/730297</t>
+  </si>
+  <si>
+    <t>R2,R39</t>
+  </si>
+  <si>
+    <t>USB-C Connector</t>
+  </si>
+  <si>
+    <t>Through Hole, Right Angle</t>
+  </si>
+  <si>
+    <t>12401610E4#2ATR-ND</t>
+  </si>
+  <si>
+    <t>12401610E4#2A</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/amphenol-icc-commercial-products/12401610E4-2A/12401610E4-2ATR-ND/5775519</t>
+  </si>
+  <si>
+    <t>R10,R13,R16,R18,R24,R27,R34,R37</t>
+  </si>
+  <si>
+    <t>U12</t>
+  </si>
+  <si>
+    <t>4MB MRAM</t>
+  </si>
+  <si>
+    <t>8DFN</t>
+  </si>
+  <si>
+    <t>819-1055-ND</t>
+  </si>
+  <si>
+    <t>MR25H40MDF</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/everspin-technologies-inc/MR25H40MDF/819-1055-ND/4169130</t>
+  </si>
+  <si>
+    <t>330R SMD</t>
+  </si>
+  <si>
+    <t>311-330HRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07330RL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/RC0603FR-07330RL/311-330HRCT-ND/730109</t>
+  </si>
+  <si>
+    <t>R28,29,30,31</t>
+  </si>
+  <si>
+    <t>R32</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>67-1551-1-ND</t>
+  </si>
+  <si>
+    <t>SML-LX0603SRW-TR</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/lumex-opto-components-inc/SML-LX0603SRW-TR/67-1551-1-ND/304364</t>
+  </si>
+  <si>
+    <t>LED1, LED2, LED3, LED4, LED5, LED6</t>
+  </si>
+  <si>
+    <t>Red LED SMD</t>
   </si>
 </sst>
 </file>
@@ -1488,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3A4314-0F82-4785-B06F-435A11FFC277}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1548,261 +1548,261 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>311</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>310</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>312</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1814,33 +1814,33 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="G14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1852,85 +1852,85 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D16" s="3">
         <v>4</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="H17" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1942,33 +1942,33 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="G20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1980,59 +1980,59 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="D22" s="3">
         <v>2</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="H22" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="G23" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2044,189 +2044,189 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F25" s="2">
         <v>5031821852</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D26" s="3">
         <v>2</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>103</v>
+        <v>304</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F28" s="2">
         <v>132134</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D30" s="3">
         <v>9</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D31" s="3">
         <v>3</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2238,10 +2238,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="C33" s="2">
         <v>1210</v>
@@ -2250,24 +2250,24 @@
         <v>1</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="C34" s="2">
         <v>1210</v>
@@ -2276,24 +2276,24 @@
         <v>1</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="C35" s="2">
         <v>1210</v>
@@ -2302,21 +2302,21 @@
         <v>1</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2328,33 +2328,33 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>297</v>
+        <v>129</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>277</v>
+        <v>115</v>
       </c>
       <c r="D37" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>278</v>
+        <v>127</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>279</v>
+        <v>128</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>280</v>
+        <v>126</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2366,575 +2366,589 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="3">
+        <v>10</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" s="3">
-        <v>4</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="10"/>
+      <c r="B40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="3">
+        <v>7</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D41" s="3">
-        <v>10</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>176</v>
+      <c r="G41" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D42" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>173</v>
+        <v>160</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D44" s="3">
         <v>4</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>163</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D46" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D47" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D48" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D49" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>184</v>
+        <v>289</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>185</v>
+        <v>288</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>186</v>
+        <v>290</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D50" s="3">
-        <v>2</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>271</v>
-      </c>
+      <c r="A50" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="10"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D51" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>319</v>
+        <v>215</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>318</v>
+        <v>216</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>320</v>
+        <v>217</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="10"/>
+      <c r="A52" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D53" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D54" s="3">
         <v>1</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>227</v>
+        <v>279</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D55" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D56" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>306</v>
+        <v>228</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>307</v>
+        <v>229</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D57" s="3">
         <v>1</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>212</v>
+        <v>309</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D58" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D59" s="3">
         <v>1</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>270</v>
+        <v>201</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D60" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D61" s="3">
         <v>1</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2945,217 +2959,203 @@
         <v>206</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D62" s="3">
         <v>1</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>208</v>
+        <v>321</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D63" s="3">
         <v>1</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>310</v>
+        <v>249</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>311</v>
+        <v>250</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>309</v>
+        <v>251</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="D65" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D66" s="3">
         <v>1</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>217</v>
+        <v>316</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>215</v>
+        <v>320</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="D67" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D68" s="3">
-        <v>1</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>271</v>
-      </c>
+      <c r="A68" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="10"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>223</v>
+        <v>326</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D69" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>264</v>
+        <v>323</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>265</v>
+        <v>324</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>266</v>
+        <v>325</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A50:H50"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="A36:H36"/>
     <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A40:H40"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A15:H15"/>
